--- a/test_data_splited.xlsx
+++ b/test_data_splited.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>19</v>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>

--- a/test_data_splited.xlsx
+++ b/test_data_splited.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
         <v>28</v>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>19</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
@@ -658,6 +658,9 @@
         <is>
           <t>max+7</t>
         </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
